--- a/italiano_preguntas.xlsx
+++ b/italiano_preguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/929cf312e2b780ae/Italiano/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C8566D563BEA1B2415F14650A48F2408197C688F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC32AF85-0345-47F8-8683-6819E8B6509F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_C8566D563BEA1B2415F14650A48F2408197C688F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DD56D53-69DC-4B36-AC51-CE970941206C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,15 +31,6 @@
     <t>Respuesta Correcta</t>
   </si>
   <si>
-    <t>Respuesta Incorrecta 1</t>
-  </si>
-  <si>
-    <t>Respuesta Incorrecta 2</t>
-  </si>
-  <si>
-    <t>Respuesta Incorrecta 3</t>
-  </si>
-  <si>
     <t>Explicación</t>
   </si>
   <si>
@@ -701,6 +692,15 @@
   </si>
   <si>
     <t>'Arrivederci' es la forma más común de despedida formal.</t>
+  </si>
+  <si>
+    <t>Opción 1</t>
+  </si>
+  <si>
+    <t>Opción 2</t>
+  </si>
+  <si>
+    <t>Opción 3</t>
   </si>
 </sst>
 </file>
@@ -753,6 +753,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1043,7 +1047,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,216 +1068,216 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1305,216 +1311,216 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
         <v>92</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>93</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>94</v>
-      </c>
-      <c r="D7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
         <v>98</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>99</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
         <v>104</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>105</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>106</v>
-      </c>
-      <c r="D9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
         <v>110</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>111</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>112</v>
-      </c>
-      <c r="D10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
         <v>116</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>118</v>
-      </c>
-      <c r="D11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1546,216 +1554,216 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
         <v>122</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>124</v>
-      </c>
-      <c r="D2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
         <v>128</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>129</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>130</v>
-      </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
         <v>134</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>135</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>136</v>
-      </c>
-      <c r="D4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
         <v>140</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>141</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>142</v>
-      </c>
-      <c r="D5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
         <v>146</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>147</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>148</v>
-      </c>
-      <c r="D6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
         <v>152</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>153</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>154</v>
-      </c>
-      <c r="D7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
         <v>158</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>159</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>160</v>
-      </c>
-      <c r="D8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" t="s">
         <v>164</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>165</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>166</v>
-      </c>
-      <c r="D9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" t="s">
         <v>170</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>171</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>172</v>
-      </c>
-      <c r="D10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s">
         <v>176</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>177</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>178</v>
-      </c>
-      <c r="D11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +1775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1785,216 +1795,216 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
         <v>182</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>183</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>184</v>
-      </c>
-      <c r="D2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" t="s">
         <v>188</v>
-      </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" t="s">
         <v>190</v>
       </c>
-      <c r="E4" t="s">
-        <v>193</v>
-      </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" t="s">
         <v>197</v>
-      </c>
-      <c r="B6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
         <v>201</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" t="s">
         <v>202</v>
-      </c>
-      <c r="C7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" t="s">
         <v>206</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>207</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>208</v>
-      </c>
-      <c r="D8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" t="s">
         <v>212</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>213</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>214</v>
-      </c>
-      <c r="D9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
         <v>218</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>219</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>220</v>
-      </c>
-      <c r="D10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
